--- a/Team-Data/2014-15/11-6-2014-15.xlsx
+++ b/Team-Data/2014-15/11-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,34 +811,34 @@
         <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="n">
         <v>3</v>
@@ -798,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
@@ -941,34 +1008,34 @@
         <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM3" t="n">
         <v>4</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3" t="n">
         <v>20</v>
@@ -980,28 +1047,28 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA3" t="n">
         <v>25</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>26</v>
       </c>
       <c r="BB3" t="n">
         <v>3</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
         <v>13</v>
@@ -1126,65 +1193,65 @@
         <v>3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>3</v>
       </c>
       <c r="AL4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
       </c>
       <c r="AP4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU4" t="n">
         <v>23</v>
       </c>
-      <c r="AS4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>24</v>
-      </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
       </c>
       <c r="AX4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>28</v>
       </c>
       <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
         <v>8</v>
       </c>
-      <c r="BC4" t="n">
-        <v>7</v>
-      </c>
       <c r="BD4" t="n">
         <v>10</v>
       </c>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -1293,25 +1360,25 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>2</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ5" t="n">
         <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
@@ -1329,32 +1396,32 @@
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>20</v>
       </c>
       <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU5" t="n">
         <v>9</v>
       </c>
-      <c r="AT5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
         <v>7</v>
       </c>
-      <c r="AV5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ5" t="n">
         <v>1</v>
       </c>
@@ -1362,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -1487,67 +1554,67 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
         <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO6" t="n">
         <v>7</v>
       </c>
-      <c r="AO6" t="n">
-        <v>5</v>
-      </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>20</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX6" t="n">
         <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>7</v>
       </c>
       <c r="BB6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>18</v>
@@ -1675,19 +1742,19 @@
         <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
         <v>22</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>10</v>
@@ -1717,7 +1784,7 @@
         <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1729,7 +1796,7 @@
         <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -1773,70 +1840,70 @@
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>42.5</v>
+        <v>43.8</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>83.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.491</v>
+        <v>0.524</v>
       </c>
       <c r="L8" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.391</v>
       </c>
       <c r="O8" t="n">
         <v>15.3</v>
       </c>
       <c r="P8" t="n">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.782</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="T8" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>5.8</v>
       </c>
-      <c r="X8" t="n">
-        <v>6</v>
-      </c>
       <c r="Y8" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.5</v>
+        <v>111.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1851,68 +1918,68 @@
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>24</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>22</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
         <v>8</v>
       </c>
       <c r="AY8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
         <v>5</v>
       </c>
-      <c r="AZ8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>12</v>
-      </c>
       <c r="BD8" t="n">
         <v>10</v>
       </c>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-7</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
@@ -2033,25 +2100,25 @@
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>6</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2072,13 +2139,13 @@
         <v>20</v>
       </c>
       <c r="AV9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>15</v>
@@ -2090,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-6.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
@@ -2215,22 +2282,22 @@
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>20</v>
@@ -2239,7 +2306,7 @@
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>6</v>
@@ -2248,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>27</v>
@@ -2260,22 +2327,22 @@
         <v>30</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>15.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2400,10 +2467,10 @@
         <v>4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>2</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>14</v>
@@ -2442,19 +2509,19 @@
         <v>3</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2501,67 +2568,67 @@
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>73.59999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.47</v>
+        <v>0.461</v>
       </c>
       <c r="L12" t="n">
-        <v>13.8</v>
+        <v>14.2</v>
       </c>
       <c r="M12" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.434</v>
+        <v>0.441</v>
       </c>
       <c r="O12" t="n">
-        <v>20.6</v>
+        <v>23.4</v>
       </c>
       <c r="P12" t="n">
-        <v>28.8</v>
+        <v>32.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.715</v>
+        <v>0.727</v>
       </c>
       <c r="R12" t="n">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>42.6</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="V12" t="n">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="W12" t="n">
         <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.6</v>
+        <v>24.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.6</v>
+        <v>105.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2579,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,46 +2664,46 @@
         <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AP12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB12" t="n">
         <v>5</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2749,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
         <v>2</v>
@@ -2767,16 +2834,16 @@
         <v>18</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AM13" t="n">
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2785,22 +2852,22 @@
         <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2812,16 +2879,16 @@
         <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -2934,34 +3001,34 @@
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2982,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2991,19 +3058,19 @@
         <v>22</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3032,13 +3099,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3047,76 +3114,76 @@
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>38.8</v>
+        <v>36.6</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="M15" t="n">
-        <v>15.8</v>
+        <v>14.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O15" t="n">
-        <v>22.3</v>
+        <v>24</v>
       </c>
       <c r="P15" t="n">
-        <v>29.8</v>
+        <v>31.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.748</v>
+        <v>0.759</v>
       </c>
       <c r="R15" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="S15" t="n">
-        <v>27</v>
+        <v>26.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U15" t="n">
-        <v>20.3</v>
+        <v>19.4</v>
       </c>
       <c r="V15" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.3</v>
+        <v>27.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>26.5</v>
+        <v>27.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-14</v>
+        <v>-14.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>29</v>
@@ -3125,34 +3192,34 @@
         <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO15" t="n">
         <v>3</v>
       </c>
-      <c r="AK15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AP15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>15</v>
       </c>
-      <c r="AO15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>20</v>
-      </c>
       <c r="AR15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS15" t="n">
         <v>27</v>
@@ -3161,10 +3228,10 @@
         <v>21</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>13</v>
@@ -3173,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ15" t="n">
         <v>29</v>
@@ -3182,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>30</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3307,22 +3374,22 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
         <v>19</v>
@@ -3331,7 +3398,7 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
         <v>20</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>13</v>
@@ -3355,20 +3422,20 @@
         <v>30</v>
       </c>
       <c r="AY16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC16" t="n">
         <v>3</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>4</v>
-      </c>
       <c r="BD16" t="n">
         <v>10</v>
       </c>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3480,43 +3547,43 @@
         <v>8</v>
       </c>
       <c r="AF17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS17" t="n">
         <v>25</v>
@@ -3525,7 +3592,7 @@
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>7</v>
@@ -3549,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="BC17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3659,34 +3726,34 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
         <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3698,40 +3765,40 @@
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
       </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>2</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
         <v>13</v>
@@ -3853,16 +3920,16 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
         <v>30</v>
@@ -3871,13 +3938,13 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
         <v>12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>6</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV19" t="n">
         <v>14</v>
@@ -3904,16 +3971,16 @@
         <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB19" t="n">
         <v>15</v>
       </c>
       <c r="BC19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -3942,160 +4009,160 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="O20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="R20" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="S20" t="n">
         <v>35</v>
       </c>
-      <c r="J20" t="n">
-        <v>85.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="O20" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="P20" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.776</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="U20" t="n">
+        <v>21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7</v>
+      </c>
+      <c r="X20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG20" t="n">
         <v>13</v>
-      </c>
-      <c r="S20" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="U20" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="W20" t="n">
-        <v>6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
       </c>
       <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM20" t="n">
         <v>20</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AN20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>26</v>
       </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM20" t="n">
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY20" t="n">
         <v>19</v>
       </c>
-      <c r="AN20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AZ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA20" t="n">
         <v>15</v>
       </c>
-      <c r="AR20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>18</v>
-      </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -4205,43 +4272,43 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN21" t="n">
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>14</v>
@@ -4253,31 +4320,31 @@
         <v>24</v>
       </c>
       <c r="AU21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
         <v>10</v>
       </c>
       <c r="AW21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -4387,37 +4454,37 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
@@ -4426,37 +4493,37 @@
         <v>25</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT22" t="n">
         <v>11</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>10</v>
       </c>
       <c r="AU22" t="n">
         <v>19</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>25</v>
       </c>
       <c r="AX22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>10</v>
       </c>
       <c r="BB22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -4488,133 +4555,133 @@
         </is>
       </c>
       <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>36.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.446</v>
       </c>
       <c r="L23" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M23" t="n">
-        <v>17.3</v>
+        <v>16</v>
       </c>
       <c r="N23" t="n">
-        <v>0.319</v>
+        <v>0.325</v>
       </c>
       <c r="O23" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="P23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.649</v>
+        <v>0.674</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="S23" t="n">
-        <v>33</v>
+        <v>34.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43</v>
+        <v>45.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.5</v>
+        <v>-8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS23" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>24</v>
@@ -4623,25 +4690,25 @@
         <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ23" t="n">
         <v>27</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4821,7 @@
         <v>29</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4766,19 +4833,19 @@
         <v>27</v>
       </c>
       <c r="AJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="n">
         <v>24</v>
       </c>
-      <c r="AK24" t="n">
-        <v>23</v>
-      </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
         <v>21</v>
@@ -4790,10 +4857,10 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT24" t="n">
         <v>28</v>
@@ -4802,25 +4869,25 @@
         <v>16</v>
       </c>
       <c r="AV24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY24" t="n">
         <v>25</v>
       </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>22</v>
       </c>
       <c r="BB24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -4936,31 +5003,31 @@
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>17</v>
@@ -4972,10 +5039,10 @@
         <v>6</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
         <v>16</v>
@@ -4984,28 +5051,28 @@
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA25" t="n">
         <v>21</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>20</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -5034,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48</v>
       </c>
       <c r="I26" t="n">
-        <v>37.4</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82.8</v>
+        <v>84.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.452</v>
+        <v>0.436</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>27.4</v>
+        <v>26.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.343</v>
+        <v>0.327</v>
       </c>
       <c r="O26" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P26" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.788</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>33.8</v>
       </c>
       <c r="T26" t="n">
-        <v>47.4</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W26" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="X26" t="n">
         <v>5.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.8</v>
+        <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM26" t="n">
         <v>3</v>
       </c>
-      <c r="AM26" t="n">
-        <v>2</v>
-      </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
         <v>23</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>9</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -5312,10 +5379,10 @@
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,28 +5403,28 @@
         <v>4</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
         <v>4</v>
       </c>
       <c r="AT27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5369,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -5401,158 +5468,158 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>31.3</v>
+        <v>33.3</v>
       </c>
       <c r="J28" t="n">
-        <v>79</v>
+        <v>72.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.397</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M28" t="n">
-        <v>20.7</v>
+        <v>23.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.242</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>20.3</v>
+        <v>19</v>
       </c>
       <c r="P28" t="n">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.74</v>
       </c>
       <c r="R28" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>36</v>
       </c>
       <c r="T28" t="n">
-        <v>45.3</v>
+        <v>44.3</v>
       </c>
       <c r="U28" t="n">
-        <v>20.7</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="W28" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y28" t="n">
-        <v>5.3</v>
-      </c>
       <c r="Z28" t="n">
-        <v>21.3</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="n">
         <v>22</v>
       </c>
       <c r="AB28" t="n">
-        <v>88</v>
+        <v>94.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.7</v>
+        <v>-0.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG28" t="n">
         <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>19</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
       </c>
       <c r="AI28" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>30</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>23</v>
-      </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AO28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB28" t="n">
         <v>21</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="BC28" t="n">
         <v>15</v>
       </c>
-      <c r="AX28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>25</v>
-      </c>
       <c r="BD28" t="n">
         <v>10</v>
       </c>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -5673,22 +5740,22 @@
         <v>7</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5697,7 +5764,7 @@
         <v>2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR29" t="n">
         <v>13</v>
@@ -5718,13 +5785,13 @@
         <v>12</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA29" t="n">
         <v>2</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -5843,19 +5910,19 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5864,16 +5931,16 @@
         <v>6</v>
       </c>
       <c r="AL30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM30" t="n">
         <v>7</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -5885,22 +5952,22 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV30" t="n">
         <v>16</v>
       </c>
       <c r="AW30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX30" t="n">
         <v>20</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>20</v>
@@ -5909,13 +5976,13 @@
         <v>4</v>
       </c>
       <c r="BA30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>21</v>
@@ -6046,22 +6113,22 @@
         <v>5</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN31" t="n">
         <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP31" t="n">
         <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>30</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW31" t="n">
         <v>3</v>
@@ -6085,10 +6152,10 @@
         <v>27</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA31" t="n">
         <v>9</v>
@@ -6097,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-6-2014-15</t>
+          <t>2014-11-06</t>
         </is>
       </c>
     </row>
